--- a/assets/temp/report_data.xlsx
+++ b/assets/temp/report_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -35,16 +35,46 @@
     <t>Wind Speed</t>
   </si>
   <si>
+    <t>Perubahan Wind Speed</t>
+  </si>
+  <si>
+    <t>Air Pressure</t>
+  </si>
+  <si>
+    <t>Perubahan Air Pressure</t>
+  </si>
+  <si>
     <t>WSP1</t>
   </si>
   <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>06:36:24</t>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>08:19:00</t>
   </si>
   <si>
     <t>MANUAL</t>
+  </si>
+  <si>
+    <t>Naik (+10)</t>
+  </si>
+  <si>
+    <t>Naik (+990)</t>
+  </si>
+  <si>
+    <t>09:19:00</t>
+  </si>
+  <si>
+    <t>Turun (--982)</t>
+  </si>
+  <si>
+    <t>Naik (+1882)</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>Turun (--1867)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,65 +440,95 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>900</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
       <c r="F4">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/temp/report_data.xlsx
+++ b/assets/temp/report_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -32,49 +32,37 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>Wind Speed</t>
-  </si>
-  <si>
-    <t>Perubahan Wind Speed</t>
-  </si>
-  <si>
-    <t>Air Pressure</t>
-  </si>
-  <si>
-    <t>Perubahan Air Pressure</t>
-  </si>
-  <si>
-    <t>WSP1</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>08:19:00</t>
+    <t>Data Mentah</t>
+  </si>
+  <si>
+    <t>Ketinggian Air</t>
+  </si>
+  <si>
+    <t>Perubahan Ketinggian Air</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>EWS1</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>06:35:00</t>
   </si>
   <si>
     <t>MANUAL</t>
   </si>
   <si>
-    <t>Naik (+10)</t>
-  </si>
-  <si>
-    <t>Naik (+990)</t>
-  </si>
-  <si>
-    <t>09:19:00</t>
-  </si>
-  <si>
-    <t>Turun (--982)</t>
-  </si>
-  <si>
-    <t>Naik (+1882)</t>
-  </si>
-  <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
-    <t>Turun (--1867)</t>
+    <t>Ketinggian Air : 12m,Status Siaga : 2</t>
+  </si>
+  <si>
+    <t>Naik (+12)</t>
+  </si>
+  <si>
+    <t>Waspada</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +440,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -466,69 +454,17 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>1000</v>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>900</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/temp/report_data.xlsx
+++ b/assets/temp/report_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -35,34 +35,70 @@
     <t>Data Mentah</t>
   </si>
   <si>
-    <t>Ketinggian Air</t>
-  </si>
-  <si>
-    <t>Perubahan Ketinggian Air</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>EWS1</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>06:35:00</t>
+    <t>Tekanan Air Pori (kPa)</t>
+  </si>
+  <si>
+    <t>Perubahan Tekanan Air Pori (kPa)</t>
+  </si>
+  <si>
+    <t>Tekanan Air Pori (mH2O)</t>
+  </si>
+  <si>
+    <t>Perubahan Tekanan Air Pori (mH2O)</t>
+  </si>
+  <si>
+    <t>Level Freatik Air (m)</t>
+  </si>
+  <si>
+    <t>Perubahan Level Freatik Air (m)</t>
+  </si>
+  <si>
+    <t>VWP101</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>15:43:00</t>
   </si>
   <si>
     <t>MANUAL</t>
   </si>
   <si>
-    <t>Ketinggian Air : 12m,Status Siaga : 2</t>
-  </si>
-  <si>
-    <t>Naik (+12)</t>
-  </si>
-  <si>
-    <t>Waspada</t>
+    <t>Temperature : 13°C,Frekuensi : 1Hz</t>
+  </si>
+  <si>
+    <t>Temperature : 13°C,Frekuensi : 12Hz</t>
+  </si>
+  <si>
+    <t>Temperature : 1°C,Frekuensi : 12Hz</t>
+  </si>
+  <si>
+    <t>Turun (--0.011)</t>
+  </si>
+  <si>
+    <t>Turun (--0.001)</t>
+  </si>
+  <si>
+    <t>Temperature : 12°C,Frekuensi : 12Hz</t>
+  </si>
+  <si>
+    <t>Turun (--0.020)</t>
+  </si>
+  <si>
+    <t>Turun (--0.002)</t>
+  </si>
+  <si>
+    <t>15:03:00</t>
+  </si>
+  <si>
+    <t>Temperature : 12°C,Frekuensi : 1Hz</t>
+  </si>
+  <si>
+    <t>Turun (-0.031)</t>
+  </si>
+  <si>
+    <t>Turun (-0.003)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,7 +445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,34 +473,698 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
+        <v>32.113</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>3.282</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>13.282</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>32.113</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3.282</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>13.282</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>32.113</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.282</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>13.282</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>32.113</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3.282</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13.282</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>32.113</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>3.282</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13.282</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>32.113</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3.282</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>13.282</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>32.113</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>3.282</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>13.282</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>32.113</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3.282</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>13.282</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>32.113</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3.282</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>13.282</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>32.113</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3.282</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>13.282</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>32.113</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3.282</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>13.282</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>32.113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>3.282</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>13.282</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>32.124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>3.283</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>13.283</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>32.144</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>3.285</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>13.285</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>32.144</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>3.285</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>13.285</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>32.144</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>3.285</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>13.285</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>32.144</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>3.285</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>13.285</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>32.144</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>3.285</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>13.285</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
